--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,105 +46,102 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -154,12 +151,12 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -178,37 +175,34 @@
     <t>loved</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
   </si>
   <si>
     <t>play</t>
@@ -572,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -691,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7746478873239436</v>
+        <v>0.71875</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.8172043010752689</v>
+        <v>0.796875</v>
       </c>
       <c r="L5">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="M5">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,37 +785,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.71875</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C6">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>132</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6">
-        <v>46</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K6">
-        <v>0.734375</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7096774193548387</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C7">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.6792452830188679</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.668918918918919</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.5710186513629842</v>
+        <v>0.5868005738880918</v>
       </c>
       <c r="L8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M8">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6601941747572816</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C9">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.5652173913043478</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6363636363636364</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.5311203319502075</v>
+        <v>0.516597510373444</v>
       </c>
       <c r="L10">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M10">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5630252100840336</v>
+        <v>0.5825242718446602</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.4786885245901639</v>
+        <v>0.4729508196721312</v>
       </c>
       <c r="L11">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="M11">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5130434782608696</v>
+        <v>0.5246376811594203</v>
       </c>
       <c r="C12">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D12">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.3700305810397553</v>
+        <v>0.3914373088685015</v>
       </c>
       <c r="L12">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.492063492063492</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.3650793650793651</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4409448818897638</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.3583333333333333</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.421875</v>
+        <v>0.3984375</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.3373493975903614</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L15">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4210526315789473</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.2587412587412588</v>
+        <v>0.2377622377622378</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3975903614457831</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.25</v>
+        <v>0.2208835341365462</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>96</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1385,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3595505617977528</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.2258064516129032</v>
+        <v>0.2204301075268817</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1433,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3554502369668247</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C19">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,31 +1453,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.2088353413654618</v>
+        <v>0.1745614035087719</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>197</v>
+        <v>941</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2920792079207921</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C20">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,31 +1503,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.1700262927256792</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="L20">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>947</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2564102564102564</v>
+        <v>0.205</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1559,31 +1553,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.1149732620320856</v>
+        <v>0.09480519480519481</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>331</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,37 +1585,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2319587628865979</v>
+        <v>0.2020802377414562</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>149</v>
+        <v>537</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.1030640668523677</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1633,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,13 +1635,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2</v>
+        <v>0.2011494252873563</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1659,31 +1653,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.0935672514619883</v>
+        <v>0.05087014725568943</v>
       </c>
       <c r="L23">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>1395</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,13 +1685,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1962025316455696</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C24">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1709,31 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>254</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24">
-        <v>0.05740987983978638</v>
-      </c>
-      <c r="L24">
-        <v>43</v>
-      </c>
-      <c r="M24">
-        <v>46</v>
-      </c>
-      <c r="N24">
-        <v>0.93</v>
-      </c>
-      <c r="O24">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>706</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1741,25 +1711,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1961367013372957</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C25">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>541</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1767,13 +1737,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1884057971014493</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1785,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>224</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1793,13 +1763,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1728971962616822</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1811,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1819,13 +1789,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1550632911392405</v>
+        <v>0.1519823788546255</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1837,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>267</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1845,25 +1815,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1541850220264317</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="C29">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>384</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1871,25 +1841,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1535580524344569</v>
+        <v>0.1214574898785425</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1897,25 +1867,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1527377521613833</v>
+        <v>0.1042253521126761</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E31">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>294</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1923,25 +1893,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1330645161290323</v>
+        <v>0.09151785714285714</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>215</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1949,25 +1919,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1101928374655647</v>
+        <v>0.09041095890410959</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E33">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1975,25 +1945,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.08724832214765101</v>
+        <v>0.07450331125827815</v>
       </c>
       <c r="C34">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E34">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F34">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>408</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2001,25 +1971,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.08580858085808581</v>
+        <v>0.0581039755351682</v>
       </c>
       <c r="C35">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E35">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F35">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>554</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2027,51 +1997,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.05979643765903308</v>
+        <v>0.05477707006369427</v>
       </c>
       <c r="C36">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E36">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F36">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.05053598774885146</v>
-      </c>
-      <c r="C37">
-        <v>33</v>
-      </c>
-      <c r="D37">
-        <v>35</v>
-      </c>
-      <c r="E37">
-        <v>0.06</v>
-      </c>
-      <c r="F37">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>620</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
